--- a/auto/new_data/9_2_Non-ferrous_LME-Aluminium-Alloy.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Aluminium-Alloy.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Aluminium-Alloy.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Aluminium-Alloy.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Aluminium-Alloy.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Aluminium-Alloy.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
